--- a/result/Правила охорони праці на автомобільному транспорті.xlsx
+++ b/result/Правила охорони праці на автомобільному транспорті.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Вопрос</t>
   </si>
@@ -25,23 +25,167 @@
     <t>Правильний ответ</t>
   </si>
   <si>
-    <t>Не допускається виконувати вантажно-розвантажувальні роботи з небезпечними вантажами при виявленні: несправності тари, а також за відсутності на ній маркування і попереджувальних написів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Несправності тари
-Відсутності на ній маркування і попереджувальних написів
+    <t>Ширина пішохідної доріжки повинна бути не менше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2 м
+1 м
+0,8 м при потоці працюючих менше 100 осіб за годину
+</t>
+  </si>
+  <si>
+    <t>1 м</t>
+  </si>
+  <si>
+    <t>Світильники робочого освітлення та світильники аварійного освітлення у виробничих і допоміжних приміщеннях, на територіях, що освітлюються, повинні:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мати захисні грати
+Живитися від різних незалежних джерел
 Все перелічене
 </t>
   </si>
   <si>
+    <t>Живитися від різних незалежних джерел</t>
+  </si>
+  <si>
+    <t>При якій  кількості жінок, що працюють у найбільш чисельну зміну повинно бути передбачено приміщення для особистої гігієни жінок з гігієнічним душем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Від 15 і більше
+Від 12 і більше
+Не нормується
+</t>
+  </si>
+  <si>
+    <t>Від 15 і більше</t>
+  </si>
+  <si>
+    <t>Чи можуть приміщення для зберігання автомобілів безпосередньо з’єднуватися з іншими виробничими і допоміжними приміщеннями, де постійно перебувають люди</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обов’язково
+Не повинні
+Визначається технологічним процесом
+</t>
+  </si>
+  <si>
+    <t>Не повинні</t>
+  </si>
+  <si>
+    <t>Відстань від площадки (поста) зливу зрідженого нафтового газу або випуску стиснутого природного газу до виробничих, адміністративних і побутових будівель повинна бути не менше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 м
+20 м
+12 м
+</t>
+  </si>
+  <si>
+    <t>20 м</t>
+  </si>
+  <si>
+    <t>Аварійне освітлення поділяється на:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Освітлення безпеки
+Освітлення евакуаційне
+Все перелічене
+</t>
+  </si>
+  <si>
     <t>Все перелічене</t>
   </si>
   <si>
-    <t>Де забороняється перебування працівників при переміщенні вантажу підіймально-транспортним устаткуванням:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">перебування працівників на вантажі та під вантажем
-перебування працівників також у зоні його можливого падіння
+    <t>Як організовуються роботи з підвищеною небезпекою</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для виконання робіт з підвищеною небезпекою роботодавець наказом по підприємству визначає коло осіб, відповідальних за безпечне їх проведення
+На роботи з підвищеною небезпекою розробляються і вивішуються на робочих місцях технологічні карти та забезпечується їх виконання
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Вимоги до підлоги виробничих приміщень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Підлога в приміщеннях будь-якого призначення повинна бути рівна, з твердим покриттям, непроникна для ґрунтових вод, без виступів і вибоїн
+Там, де використовуються кислоти, луги і нафтопродукти, підлоги повинні бути стійкі до дії цих речовин і не поглинати їх
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Вимоги до клапану гідросистеми підйомника</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клапан або пристрій мають спрацьовувати в межах робочих перевантажень від 120 % до 140 % вантажопідіймальності підйомника
+Усі контури гідравлічної системи мають бути оснащені запобіжним клапаном. Регульований запобіжний клапан має бути опломбований
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>При розміщенні в загальному виробничому приміщенні дільниць (робочих місць), на яких згідно з технологічним процесом виділяються шкідливі речовини (гази, пил, аерозолі тощо), тепло, створюється шум то:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вони повинні розташовуватися в окремих приміщеннях, ізольованих від інших стінами до стелі
+Прохід між ними повинен здійснюватися через тамбур-шлюз
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Вони повинні розташовуватися в окремих приміщеннях, ізольованих від інших стінами до стелі</t>
+  </si>
+  <si>
+    <t>Що повинне зберігатися у виробничих приміщеннях і на території на окремих стелажах</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДеталІ, вузли та агрегати
+Різний метал
+Все перелічене
+</t>
+  </si>
+  <si>
+    <t>Для регулювання приладів газової системи живлення безпосередньо на автомобілі виділяється окреме від інших приміщення</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поза приміщенням під навісом
+В окремому від інших приміщені
+На місці ремонту автомобілів
+</t>
+  </si>
+  <si>
+    <t>В окремому від інших приміщені</t>
+  </si>
+  <si>
+    <t>Стоянкова гальмова система повинна забезпечувати нерухомий стан транспортного засобу повної маси на шляху з уклоном не менше:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стоянкова гальмова система повинна забезпечувати нерухомий стан транспортного засобу повної маси на шляху з уклоном не менше 15%
+для легкових автомобілів, їх модифікацій для перевезення пасажирів, а також автобусів у спорядженому стані - не менше 21%
+для вантажних автомобілів та автопоїздів у спорядженому стані - не менше 31%
+</t>
+  </si>
+  <si>
+    <t>для вантажних автомобілів та автопоїздів у спорядженому стані - не менше 31%</t>
+  </si>
+  <si>
+    <t>В яких випадках необхідно передбачати не менше двох воріт для в’їзду (виїзду)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При  зберіганні 50 і більше автомобілів
+При  зберіганні 60 і більше автомобілів
+Не залежно від кількості автомобілів
+</t>
+  </si>
+  <si>
+    <t>При  зберіганні 50 і більше автомобілів</t>
+  </si>
+  <si>
+    <t>Чим повинен укомплектовувати я кожен автомобіль:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кожний автомобіль укомплектовується медичною аптечкою залежно від типу транспортного засобу, знаком аварійної зупинки (миготливим червоним ліхтарем), вогнегасником
+вантажні автомобілі з дозволеною масою понад 3,5 т і автобуси з дозволеною максимальною масою понад 5 т - додатково упорними колодками не менше 2 шт
 все перелічене
 </t>
   </si>
@@ -49,310 +193,172 @@
     <t>все перелічене</t>
   </si>
   <si>
-    <t>Швидкість руху автомобільного транспорту не повинна перевищувати таких величин:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">При проїздах на території підприємства - 10 км/год;  при перетинанні переїздів підприємства, при виїздах і в’їздах - 5 км/год
-При подачі автомобіля заднім ходом - 3 км/год;  для авто- і електронавантажувачів, електрокарів - 3 км/год
+    <t>Як забороняється здійснювати запуск двигуна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">шляхом буксирування автомобіля
+перемикання ланцюга живлення стартера
+все перелічене
+</t>
+  </si>
+  <si>
+    <t>Входи у приміщення виконання акумуляторних робіт і ремонту паливної апаратури:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Необхідно відокремлювати від інших суміжних приміщень, коридорів і сходових кліток тамбур-шлюзами
+Двері цих приміщень повинні відчинятися назовні
 Все перелічене
 </t>
   </si>
   <si>
-    <t>Коли забороняється перевозити працівників на автомобілі, моторолері, електрокарі:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">допускається в приміщеннях
-перевозити працівників на автомобілі, моторолері, електрокар забороняється
-перевозити працівників на автомобілі, моторолері, електрокарі без спеціально обладнаних для них місць забороняється
-</t>
-  </si>
-  <si>
-    <t>перевозити працівників на автомобілі, моторолері, електрокарі без спеціально обладнаних для них місць забороняється</t>
-  </si>
-  <si>
-    <t>Як слід перевозити довгомірні вантажі тракторами:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">під час перевезення довгомірних вантажів їх необхідно надійно кріпити до причепа
-при одночасному перевезенні довгомірних вантажів різної довжини коротші вантажі необхідно розташовувати зверху
+    <t>Навантаження і розвантаження вантажів, кріплення їх тентів на транспортних засобах, а також відкривання та закривання бортів автомобілів, напівпричепів та причепів здійснюється:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Силами і засобами вантажовідправників, вантажоодержувачів або спеціалізованих організацій
+Водіями
+Експедиторами
+</t>
+  </si>
+  <si>
+    <t>Силами і засобами вантажовідправників, вантажоодержувачів або спеціалізованих організацій</t>
+  </si>
+  <si>
+    <t>Прання і хімчистка спецодягу здійснюються підприємством:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">У строки, встановлені з урахуванням виробничих умов
+Не рідше одного разу на 2 місяці
+Не рідше одного разу на місяць
+</t>
+  </si>
+  <si>
+    <t>У строки, встановлені з урахуванням виробничих умов</t>
+  </si>
+  <si>
+    <t>Газобалонні транспортні засоби повинні обладнуватися системою:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Перемикання виду палива
+Пожежогасіння
+Аварійної сигналізації
+</t>
+  </si>
+  <si>
+    <t>Перемикання виду палива</t>
+  </si>
+  <si>
+    <t>Площадки для пересувних паливозаправних пунктів повинні розташовуватися не ближче:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 м від виробничих будівель і споруд
+15 м від виробничих будівель і споруд
+25 м від виробничих будівель і споруд
+</t>
+  </si>
+  <si>
+    <t>12 м від виробничих будівель і споруд</t>
+  </si>
+  <si>
+    <t>Установлювати транспортні засоби в кількості, що перевищує норму, порушувати спосіб розстановки, зменшувати відстань між транспортними засобами і елементами будівель:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не допускається
+Заборонено
+Дозволяється роботодавцем
+</t>
+  </si>
+  <si>
+    <t>Не допускається</t>
+  </si>
+  <si>
+    <t>Акт готовності підйомника після монтажу складається:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Організацією, яка його змонтувала
+Організацією, яка його змонтувала та власником
+Спеціалізованою організацією
+</t>
+  </si>
+  <si>
+    <t>Організацією, яка його змонтувала</t>
+  </si>
+  <si>
+    <t>Якою повинна бути швидкість руху транспортних засобів по території підприємства:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">швидкість руху транспортних засобів по території підприємства не повинна перевищувати 15 км/год
+швидкість руху транспортних засобів по території підприємства не повинна перевищувати 20 км/год
+швидкість руху транспортних засобів по території підприємства не повинна перевищувати 10 км/год
+</t>
+  </si>
+  <si>
+    <t>швидкість руху транспортних засобів по території підприємства не повинна перевищувати 10 км/год</t>
+  </si>
+  <si>
+    <t>В чому потрібно переконатися перед запуском двигуна:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">) перед запуском двигуна необхідно переконатися, що автомобіль справний
+перед запуском двигуна необхідно переконатися, що автомобіль загальмований стоянковим гальмом, а важіль перемикання передач (контролера) поставлений у нейтральне положення
 все перелічене
 </t>
   </si>
   <si>
-    <t>Норми переміщення вантажів постійно протягом робочого дня  чоловікам:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переміщення вантажів постійно протягом робочого дня  чоловікам - до 32 кг
-переміщення вантажів постійно протягом робочого дня  чоловікам - до 50 кг
-переміщення вантажів постійно протягом робочого дня  чоловікам - до 30 кг
-</t>
-  </si>
-  <si>
-    <t>переміщення вантажів постійно протягом робочого дня  чоловікам - до 30 кг</t>
-  </si>
-  <si>
-    <t>При проведенні навантаження і розвантаження поблизу будинку відстань між будинком і транспортним засобом з вантажем повинна бути не менше ніж:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,2 м
-0,8 м
-1 м
-</t>
-  </si>
-  <si>
-    <t>0,8 м</t>
-  </si>
-  <si>
-    <t>Вимоги до робіт на самоскиді:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">під час стоянки не залишати кузов у положенні скидання вантажу
-при завантаженні  краном водієві забороняється виходити з кабіни
+    <t>перед запуском двигуна необхідно переконатися, що автомобіль загальмований стоянковим гальмом, а важіль перемикання передач (контролера) поставлений у нейтральне положення</t>
+  </si>
+  <si>
+    <t>Балони для стисненого природного чи зрідженого нафтового газу місткістю більше 100 л повинні мати:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оформлений у встановленому порядку паспорт
+Скидний клапан
+Журнал огляду
+</t>
+  </si>
+  <si>
+    <t>Оформлений у встановленому порядку паспорт</t>
+  </si>
+  <si>
+    <t>Якою повинна бути довжина робочої зони оглядової канави і естакади:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">довжина робочої зони оглядової канави і естакади повинна бути не менше габаритної довжини транспортних засобів
+довжина робочої зони тупикової оглядової канави повинна бути такою, щоб транспортний засіб міг повністю установлюватися на канаву, не закриваючи вхідні сходи і запасний вихід
 все перелічене
 </t>
   </si>
   <si>
-    <t>під час стоянки не залишати кузов у положенні скидання вантажу</t>
-  </si>
-  <si>
-    <t>Для правильного розміщення транспортних засобів під час навантаження сипучих вантажів необхідно: визначити місце зупинки транспортних засобів та нанести розмежувальні лінії</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визначити місце зупинки транспортних засобів та нанести розмежувальні лінії
-Визначити місце зупинки транспортних засобів та позначити їх знаками
+    <t>Якою повинна бути висота реборд оглядових канав та естакад:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">висота реборди повинна складати:  для транспортних засобів І категорії не менше 0,1 м,  а для транспортних засобів II і III категорій не менше 0,12 м
+висота реборди повинна складати:  для транспортних засобів І категорії не менше 0,12 м,  а для транспортних засобів II і III категорій не менше 0,15 м
+висота реборди повинна складати:  для транспортних засобів І категорії не менше 0,1 м,  а для транспортних засобів II і III категорій не менше 0,15 м
+</t>
+  </si>
+  <si>
+    <t>висота реборди повинна складати:  для транспортних засобів І категорії не менше 0,1 м,  а для транспортних засобів II і III категорій не менше 0,15 м</t>
+  </si>
+  <si>
+    <t>Балони, які встановлені на автомобілі, повинні бути:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пофарбовані
+Мати нанесені на них дані та напис білою фарбою із назвою виду газу
 Все перелічене
 </t>
   </si>
   <si>
-    <t>Визначити місце зупинки транспортних засобів та нанести розмежувальні лінії</t>
-  </si>
-  <si>
-    <t>В яких випадках дозволяється не встановлювати огорожі між пішохідною доріжкою та проїзною частиною</t>
-  </si>
-  <si>
-    <t xml:space="preserve">За наявності зелених насаджень (зеленої зони) між пішохідною доріжкою та проїзною частиною огорожі можуть не встановлюватися
-Якщо це передбачене проектом
-Огорожі обов’язкові
-</t>
-  </si>
-  <si>
-    <t>За наявності зелених насаджень (зеленої зони) між пішохідною доріжкою та проїзною частиною огорожі можуть не встановлюватися</t>
-  </si>
-  <si>
-    <t>Яку висоту не повинен перевищувати підйом вантажу з укладанням у штабель вручну:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">визначається технологічною картою
-підйом вантажу з укладанням у штабель вручну не повинен перевищувати 2 м для чоловіків і 1,6 м для жінок
-підйом вантажу з укладанням у штабель вручну не повинен перевищувати 2 м для чоловіків і 1,5 м для жінок
-</t>
-  </si>
-  <si>
-    <t>підйом вантажу з укладанням у штабель вручну не повинен перевищувати 2 м для чоловіків і 1,5 м для жінок</t>
-  </si>
-  <si>
-    <t>Керувати електровізком необхідно:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перебуваючи за межами зони його руху
-З візка, якщо конструкція візка передбачає місце для працівника
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>В якому спецодязі та спец взутті забороняється виконувати навантаження (розвантаження) балонів з горючими газами, а також легкозаймистих рідин, речовин і матеріалів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В спецодязі, виготовленому із синтетичних матеріалів та матеріалів, здатних накопичувати на своїй поверхні заряди статичної електрики
-В спецвзутті, підбитому металевими (крім латунних) цвяхами або підковами
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>На підприємстві, що виконує вантажопідіймальні роботи кранами, мають бути розроблені та затверджені у встановленному порядку:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">проект виконання робіт
-технологічні карти складування вантажів, навантаження і розвантаження рухомого складу
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Як укладаються  залізобетонні вироби під час розвантаження:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">залізобетонні вироби під час розвантаження укладаються на підкладки і прокладки
-залізобетонні вироби під час розвантаження укладаються в штабелі, висотою не більше ніж 1,5 м
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>залізобетонні вироби під час розвантаження укладаються на підкладки і прокладки</t>
-  </si>
-  <si>
-    <t>Якою повинна бути ширина пішохідних містків через канави і траншеї</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ширина пішохідних містків через канави і траншеї повинна бути не менше ніж 0,9 м з огородженням поруччям висотою не менше ніж 1 м
-Ширина пішохідних містків через канави і траншеї повинна бути не менше ніж 0,8 м з огородженням поруччям висотою не менше ніж 1 м
-Ширина пішохідних містків через канави і траншеї повинна бути не менше ніж 0,8 м з огородженням поруччям висотою не менше ніж 1,1 м
-</t>
-  </si>
-  <si>
-    <t>Ширина пішохідних містків через канави і траншеї повинна бути не менше ніж 0,8 м з огородженням поруччям висотою не менше ніж 1 м</t>
-  </si>
-  <si>
-    <t>Як освітлюються місця навантаження і розвантаження небезпечних вантажів:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">місця навантаження і розвантаження небезпечних вантажів освітлюються електричними світильниками у вибухозахищеному виконанні з лампами напругою не більше ніж 42 В
-місця навантаження і розвантаження небезпечних вантажів освітлюються електричними світильниками у вибухозахищеному виконанні з лампами напругою не більше ніж 12 В
-місця навантаження і розвантаження небезпечних вантажів освітлюються електричними світильниками у вибухозахищеному виконанні з лампами напругою не більше ніж 36 В
-</t>
-  </si>
-  <si>
-    <t>місця навантаження і розвантаження небезпечних вантажів освітлюються електричними світильниками у вибухозахищеному виконанні з лампами напругою не більше ніж 12 В</t>
-  </si>
-  <si>
-    <t>При висоті штабеля, стелажа більше 1,3 м :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стелажі повинні мати огородження
-Необхідно передбачати пристрої або пристосування, що дозволяють стропальникові безпечно підніматися до верхньої зони штабеля, стелажа та виконувати стропальні роботи, не перебуваючи безпосередньо на штабелі, стелажі, контейнері або вантажі
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Необхідно передбачати пристрої або пристосування, що дозволяють стропальникові безпечно підніматися до верхньої зони штабеля, стелажа та виконувати стропальні роботи, не перебуваючи безпосередньо на штабелі, стелажі, контейнері або вантажі</t>
-  </si>
-  <si>
-    <t>Вантажно-розвантажувальні роботи з легкозаймистими рідинами, речовинами і матеріалами, із застосуванням відкритого вогню повинні виконуватися: з оформленням наряду-допуску</t>
-  </si>
-  <si>
-    <t xml:space="preserve">З письмового дозволу відповідального за пожежні безпеку підприємства
-З оформленням наряду-допуску
-Бригадою в складі не менше трьох працівників
-</t>
-  </si>
-  <si>
-    <t>З оформленням наряду-допуску</t>
-  </si>
-  <si>
-    <t>Вимоги до транспортування вантажів авто- і електронавантажувачами:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рух авто- і електронавантажувача необхідно робити при відхиленій назад рамі навантажувача
-Транспортувати необв’язаний вантаж та такий, що не має фіксуючих елементів, допускається в один ярус
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>У складських приміщеннях повинні бути вивішені таблички із зазначенням:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимально допустимого навантаження на одиницю площі підлоги, стелажа
-Максимальної вантажопідіймальності підіймально-транспортних засобів
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Якою повинна бути ширина доріжок тротуару</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ширина доріжок тротуару повинна бути не менше ніж 1,5 м. При інтенсивності пішохідного руху менше ніж 100 осіб/год допускається облаштування тротуарів шириною 1 м
-При інтенсивності пішохідного руху менше ніж 100 осіб/год допускається облаштування тротуарів шириною 1 м
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Як потрібно навантажувати (розвантажувати) балони:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">навантажувати (розвантажувати) балони масою більше 50 кг вручну повинні два працівники
-забороняється піднімати і перекочувати балони, тримаючись за запобіжний ковпак або вентиль, а також переносити їх на плечах і спині
-все перелічене
-</t>
-  </si>
-  <si>
-    <t>забороняється піднімати і перекочувати балони, тримаючись за запобіжний ковпак або вентиль, а також переносити їх на плечах і спині</t>
-  </si>
-  <si>
-    <t>Переміщення вантажу над приміщеннями і транспортними засобами, де перебувають працівники, забороняється</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Забороняється
-Переміщення вантажу над приміщеннями і транспортними засобами, де перебувають працівники допускається, якщо там відсутні люди
-Не допускається
-</t>
-  </si>
-  <si>
-    <t>Забороняється</t>
-  </si>
-  <si>
-    <t>Вантажно-розвантажувальний майданчик повинен бути оснащений: навантажувачами безперервної дії (стрічкові, скребкові, роторні, шнекові навантажувачі)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Відповідними вантажопідіймальними кранами і машинами, або навантажувачами періодичної дії
-Навантажувачами безперервної дії (стрічкові, скребкові, роторні, шнекові навантажувачі)
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Уздовж передньої крайки автомобільної і залізничної рамп необхідно встановлювати:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Знімні відбійні бруси перерізом 150 х 150 мм для попередження завалу коліс вантажопідіймального транспорту за край рампи
-Знімні відбійні бруси перерізом 120 х 120 мм для попередження завалу коліс вантажопідіймального транспорту за край рампи
-Відбійні бруси перерізом 150 х 150 мм для попередження завалу коліс вантажопідіймального транспорту за край рампи
-</t>
-  </si>
-  <si>
-    <t>Знімні відбійні бруси перерізом 150 х 150 мм для попередження завалу коліс вантажопідіймального транспорту за край рампи</t>
-  </si>
-  <si>
-    <t>Під час транспортування вантажу необхідно витримувати відстань між габаритом навантажувача або вантажу, що транспортується, і устаткуванням, штабелями не менше ніж:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,4 м
-0,5 м
-0,8 м
-</t>
-  </si>
-  <si>
-    <t>0,5 м</t>
-  </si>
-  <si>
-    <t>Не допускаються роботи на вантажопідіймальній машині (кран, перевантажувач кранового типу) при швидкості вітру, що перевищує :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Значення, зазначене в паспорті машини
-10 м за сек
-8 м за сек
-</t>
-  </si>
-  <si>
-    <t>Значення, зазначене в паспорті машини</t>
-  </si>
-  <si>
-    <t>Сфера поширення цих Правил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ці Правила поширюються на всіх суб’єктів господарювання незалежно від форм власності та організаційно-правової форми, які в процесі своєї діяльності виконують вантажно-розвантажувальні роботи, навантаження (розвантаження) або вивантаження (далі - вантажно-розвантажувальні роботи)
-Ці Правила є обов’язковими для роботодавців та працівників, що виконують вантажно-розвантажувальні роботи
-Все перелічене
-</t>
-  </si>
-  <si>
-    <t>Перед підйомом і переміщенням вантажів повинні бути перевірені:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Справність вантажозахоплювальних пристроїв
-Документи на вантаж
-Стан піднімального механізму
-</t>
-  </si>
-  <si>
-    <t>Справність вантажозахоплювальних пристроїв</t>
+    <t>Очищати віконне скло і ліхтарі необхідно залежно від ступеня забруднення, але не менше: 2 разів на рік</t>
+  </si>
+  <si>
+    <t xml:space="preserve">одного разу на рік
+3 разів на рік
+2 разів на рік
+</t>
+  </si>
+  <si>
+    <t>2 разів на рік</t>
   </si>
 </sst>
 </file>
@@ -731,62 +737,62 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -797,51 +803,51 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -852,29 +858,29 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -885,40 +891,40 @@
         <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>56</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -929,106 +935,106 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
